--- a/Listado_CLIENTES.xlsx
+++ b/Listado_CLIENTES.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID</t>
   </si>
@@ -20,6 +20,12 @@
   </si>
   <si>
     <t>RUC</t>
+  </si>
+  <si>
+    <t>Luis Oviedo Chaparro</t>
+  </si>
+  <si>
+    <t>1683694-4</t>
   </si>
 </sst>
 </file>
@@ -65,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -82,6 +88,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
